--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177298</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.01858681</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D14" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.39810218700126</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822437085</v>
+        <v>352.1613821978978</v>
       </c>
       <c r="S30" t="n">
-        <v>408.1929150588091</v>
+        <v>406.6592151046196</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777493</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W32" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D35" t="n">
         <v>410.3391557398498</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3511,7 +3511,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D38" t="n">
         <v>410.3391557398498</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4339,25 +4339,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L2" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M2" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N2" t="n">
-        <v>4235.463726622743</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O2" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P2" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4497,19 +4497,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>426.6131206966359</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6131206966359</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4564,7 +4564,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4807,31 +4807,31 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2049.12665539136</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2966.719378707943</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M8" t="n">
-        <v>3448.898578221445</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N8" t="n">
-        <v>4013.941642094117</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O8" t="n">
-        <v>4924.096525034862</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P8" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4843,7 +4843,7 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
         <v>4826.598134791557</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4959,22 +4959,22 @@
         <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M11" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,25 +5181,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5238,19 +5238,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
         <v>1711.662994324041</v>
@@ -5281,16 +5281,16 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1713.790319599031</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L14" t="n">
-        <v>2631.383042915614</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M14" t="n">
         <v>4163.230577523946</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5481,13 +5481,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="17">
@@ -5521,28 +5521,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L17" t="n">
-        <v>2963.70989871419</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3445.889098227693</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>4010.932162100365</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5734,52 +5734,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M20" t="n">
-        <v>3788.860546968407</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N20" t="n">
-        <v>4353.903610841079</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5264.058493781823</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5931,37 +5931,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5986,37 +5986,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L23" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M23" t="n">
-        <v>3670.420662750071</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>4235.463726622743</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6183,22 +6183,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>293.2980670266921</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L26" t="n">
-        <v>2257.013012360075</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M26" t="n">
-        <v>3445.889098227693</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N26" t="n">
-        <v>4010.932162100365</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O26" t="n">
         <v>5755.312162100365</v>
@@ -6262,16 +6262,16 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
         <v>3583.51196363841</v>
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6420,22 +6420,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="29">
@@ -6466,31 +6466,31 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1408.776586572602</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2326.369309889185</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M29" t="n">
-        <v>2808.548509402688</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N29" t="n">
-        <v>3373.59157327536</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O29" t="n">
-        <v>4283.746456216104</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P29" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6572,7 +6572,7 @@
         <v>5925.70787425084</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498247094</v>
+        <v>5569.989306374176</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422430115</v>
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E31" t="n">
         <v>140.96</v>
@@ -6657,22 +6657,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="32">
@@ -6709,25 +6709,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>3797.935015773446</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M32" t="n">
-        <v>4280.114215286949</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N32" t="n">
-        <v>4845.157279159621</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O32" t="n">
-        <v>5755.312162100365</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6745,7 +6745,7 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
         <v>3583.51196363841</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6894,22 +6894,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
         <v>2126.146990020859</v>
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>2257.013012360075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M35" t="n">
-        <v>3788.860546968407</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N35" t="n">
-        <v>4353.903610841079</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O35" t="n">
-        <v>5264.058493781823</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -6979,16 +6979,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7159,19 +7159,19 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7183,19 +7183,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M38" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
         <v>6474.295852434775</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7374,16 +7374,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
@@ -7420,7 +7420,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L41" t="n">
         <v>2819.17922466306</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7605,22 +7605,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="44">
@@ -7657,25 +7657,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2053.555015773446</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>3797.935015773446</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>4280.114215286949</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7848,16 +7848,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>864.2829836734577</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>223.759681342045</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>378.1515460156963</v>
+        <v>96.62737647160202</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M14" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L17" t="n">
-        <v>207.1786869636871</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>496.2158265843852</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M23" t="n">
-        <v>940.6347988651447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9664,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>332.9552028337757</v>
       </c>
       <c r="M26" t="n">
-        <v>713.8352387415304</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>70.0568661910213</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>763.2599394199324</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,34 +10588,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>645.1956588512423</v>
       </c>
       <c r="P35" t="n">
-        <v>496.2158265843852</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M38" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L41" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>644.9963936264489</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633165828</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23439,10 +23439,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24171,7 +24171,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>102.8454312732934</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24226,10 +24226,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24390,7 +24390,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>184.3695790733548</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995418916</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699954189444</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E31" t="n">
-        <v>280.9809048369565</v>
+        <v>115.7681162935301</v>
       </c>
       <c r="F31" t="n">
         <v>274.3828559677419</v>
@@ -24897,10 +24897,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
@@ -24985,10 +24985,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25648,10 +25648,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929388</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.78358954761</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.00002980132</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791083</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485918</v>
+        <v>5921079.801415536</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.18445738811</v>
+        <v>7020921.675039982</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664425</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.640742446</v>
+        <v>9220605.422288869</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275022</v>
+        <v>11420289.16953805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.8251700311</v>
+        <v>12520131.04316249</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.55331256</v>
+        <v>13619972.91678695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.281455089</v>
+        <v>14719814.79041141</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976182</v>
+        <v>15819656.66403588</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401473</v>
+        <v>16919498.53766034</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577603</v>
+        <v>976017.2062577608</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="D2" t="n">
         <v>976017.2062577605</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630245</v>
       </c>
       <c r="F2" t="n">
         <v>874233.2841630245</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.284163025</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.284163025</v>
       </c>
       <c r="J2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632585</v>
+        <v>874233.2841632589</v>
       </c>
       <c r="L2" t="n">
         <v>874233.2841630249</v>
@@ -26355,13 +26355,13 @@
         <v>874233.2841630246</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="O2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630245</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264139</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
         <v>38928.93672769592</v>
@@ -26441,25 +26441,25 @@
         <v>38928.93672769592</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.9367276959</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
+        <v>38928.93672769592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38928.93672769592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38928.93672786301</v>
+      </c>
+      <c r="L4" t="n">
         <v>38928.93672769591</v>
       </c>
-      <c r="J4" t="n">
-        <v>38928.9367276959</v>
-      </c>
-      <c r="K4" t="n">
-        <v>38928.93672786299</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>38928.93672769592</v>
       </c>
-      <c r="M4" t="n">
-        <v>38928.9367276959</v>
-      </c>
       <c r="N4" t="n">
-        <v>38928.93672769591</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="O4" t="n">
         <v>38928.93672769591</v>
@@ -26527,34 +26527,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355510.071693068</v>
+        <v>-1355510.071693067</v>
       </c>
       <c r="C6" t="n">
-        <v>689490.8793614137</v>
+        <v>689490.8793614135</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313467</v>
+        <v>689793.2400313466</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353286</v>
       </c>
       <c r="F6" t="n">
         <v>696324.9474353286</v>
       </c>
       <c r="G6" t="n">
-        <v>696324.9474353289</v>
+        <v>696324.9474353287</v>
       </c>
       <c r="H6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="I6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="J6" t="n">
         <v>76100.94743532897</v>
       </c>
       <c r="K6" t="n">
-        <v>696324.9474353956</v>
+        <v>696324.9474353958</v>
       </c>
       <c r="L6" t="n">
         <v>696324.947435329</v>
@@ -26563,13 +26563,13 @@
         <v>696324.9474353287</v>
       </c>
       <c r="N6" t="n">
-        <v>696324.9474353291</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="O6" t="n">
         <v>696324.947435329</v>
       </c>
       <c r="P6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353286</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27693,22 +27693,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9712283912286</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>126.8708835936961</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28039,10 +28039,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H10" t="n">
         <v>205.3472244622743</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -34831,16 +34831,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>1435.033553241813</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34849,10 +34849,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34989,22 +34989,22 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>137.5419299999215</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>168.7357375896767</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1068.070113763675</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35451,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35539,19 +35539,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>1620.580889925231</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35563,7 +35563,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,19 +35773,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.265832447857</v>
+        <v>843.741662903763</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -36013,13 +36013,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L17" t="n">
-        <v>1134.040023647104</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,7 +36028,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
@@ -36037,7 +36037,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.526259006015</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,19 +36484,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834174</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M23" t="n">
-        <v>1427.68449534343</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36508,10 +36508,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,25 +36721,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834174</v>
+        <v>1259.816539517193</v>
       </c>
       <c r="M26" t="n">
-        <v>1200.884935219816</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>817.1711526231821</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,13 +36979,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1690.12127610335</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,13 +37216,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,34 +37432,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1564.544025458054</v>
       </c>
       <c r="P35" t="n">
-        <v>1340.526259006015</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,13 +37675,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M38" t="n">
-        <v>978.542540178503</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,7 +37690,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L41" t="n">
-        <v>1418.354180383635</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1392.11068005861</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
